--- a/_templates/Edge-Barcode-Scanner-Info/Jobs_Meta_Information_en.xlsx
+++ b/_templates/Edge-Barcode-Scanner-Info/Jobs_Meta_Information_en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Edge-Scanner-Infos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiashaas/git/peakboard-templates/_templates/Edge-Barcode-Scanner-Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F923EADF-319B-D342-9BF3-A4BBDD375794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2632C1DE-0460-674B-8EDB-2CC472265B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="5100" windowWidth="29240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
